--- a/data/trans_orig/P1422-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1422-Provincia-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>4768</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1891</v>
+        <v>1899</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10422</v>
+        <v>10483</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01617739469979585</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006415510085407081</v>
+        <v>0.006442504777778587</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03536060894648765</v>
+        <v>0.03556748853438453</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5884</v>
+        <v>4569</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003530708441348131</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02048423488879667</v>
+        <v>0.01590463507299552</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -785,19 +785,19 @@
         <v>5782</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1973</v>
+        <v>2047</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11945</v>
+        <v>11875</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00993546460195685</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003389872577546578</v>
+        <v>0.003516612479284234</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02052460467871844</v>
+        <v>0.02040358461335071</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>289970</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284316</v>
+        <v>284255</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292847</v>
+        <v>292839</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9838226053002042</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9646393910535123</v>
+        <v>0.9644325114656154</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9935844899145929</v>
+        <v>0.9935574952222214</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>255</v>
@@ -835,7 +835,7 @@
         <v>286231</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>281361</v>
+        <v>282676</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>287245</v>
@@ -844,7 +844,7 @@
         <v>0.9964692915586518</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9795157651112029</v>
+        <v>0.9840953649270046</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -856,19 +856,19 @@
         <v>576201</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>570038</v>
+        <v>570108</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>580010</v>
+        <v>579936</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9900645353980432</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9794753953212809</v>
+        <v>0.9795964153866491</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9966101274224534</v>
+        <v>0.9964833875207156</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>10584</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4369</v>
+        <v>4253</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20832</v>
+        <v>22464</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02093691461782524</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008642739610426916</v>
+        <v>0.008413747341689721</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0412075122997927</v>
+        <v>0.04443715512207772</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -981,19 +981,19 @@
         <v>4539</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1070</v>
+        <v>1079</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10639</v>
+        <v>10264</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008666622415047743</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002042168186954091</v>
+        <v>0.00205958536272988</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0203122227724341</v>
+        <v>0.01959623247903504</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -1002,19 +1002,19 @@
         <v>15123</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7533</v>
+        <v>7809</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27990</v>
+        <v>25901</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01469306154443517</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00731866307443085</v>
+        <v>0.007587102390467742</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02719354852538657</v>
+        <v>0.02516374656293206</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>494943</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>484695</v>
+        <v>483063</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>501158</v>
+        <v>501274</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9790630853821748</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9587924877002073</v>
+        <v>0.9555628448779228</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9913572603895732</v>
+        <v>0.9915862526583104</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>476</v>
@@ -1052,19 +1052,19 @@
         <v>519226</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>513126</v>
+        <v>513501</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>522695</v>
+        <v>522686</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9913333775849522</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9796877772275661</v>
+        <v>0.9804037675209649</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9979578318130459</v>
+        <v>0.9979404146372701</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>941</v>
@@ -1073,19 +1073,19 @@
         <v>1014169</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1001302</v>
+        <v>1003391</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1021759</v>
+        <v>1021483</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9853069384555648</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9728064514746134</v>
+        <v>0.9748362534370683</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9926813369255691</v>
+        <v>0.9924128976095324</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>2925</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7495</v>
+        <v>8850</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009026462109795123</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002861162724183346</v>
+        <v>0.002852684461195021</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02312822782956424</v>
+        <v>0.0273124422253222</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8548</v>
+        <v>7547</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006358504408577881</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02506552009378121</v>
+        <v>0.0221304511463502</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1219,19 +1219,19 @@
         <v>5093</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1922</v>
+        <v>1979</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11324</v>
+        <v>10331</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007658437064443804</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002889487700058876</v>
+        <v>0.002975851228115741</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0170273705295991</v>
+        <v>0.01553359256213115</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>321121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>316551</v>
+        <v>315196</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>323119</v>
+        <v>323122</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9909735378902049</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9768717721704356</v>
+        <v>0.9726875577746772</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9971388372758166</v>
+        <v>0.997147315538805</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>315</v>
@@ -1269,7 +1269,7 @@
         <v>338852</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>332472</v>
+        <v>333473</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>341020</v>
@@ -1278,7 +1278,7 @@
         <v>0.9936414955914221</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9749344799062175</v>
+        <v>0.9778695488536497</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1290,19 +1290,19 @@
         <v>659973</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>653742</v>
+        <v>654735</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>663144</v>
+        <v>663087</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9923415629355562</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9829726294704006</v>
+        <v>0.9844664074378688</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9971105122999411</v>
+        <v>0.9970241487718843</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>2856</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8726</v>
+        <v>7744</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007637974211569155</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002490685537566373</v>
+        <v>0.002462245944642674</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02333371672891337</v>
+        <v>0.02070676934462075</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1415,19 +1415,19 @@
         <v>4023</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9192</v>
+        <v>9961</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01034380033758704</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002528013050024615</v>
+        <v>0.002540505187686616</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02363290720473948</v>
+        <v>0.02561000668059041</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1436,19 +1436,19 @@
         <v>6880</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2933</v>
+        <v>2904</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13048</v>
+        <v>13890</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009017431665304091</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003844758775608412</v>
+        <v>0.003806337306017993</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01710307214471588</v>
+        <v>0.01820541480531229</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>371126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>365256</v>
+        <v>366238</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>373051</v>
+        <v>373061</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9923620257884308</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9766662832710868</v>
+        <v>0.9792932306553794</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9975093144624336</v>
+        <v>0.9975377540553574</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>367</v>
@@ -1486,19 +1486,19 @@
         <v>384928</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>379759</v>
+        <v>378990</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>387968</v>
+        <v>387963</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9896561996624129</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9763670927952606</v>
+        <v>0.9743899933194097</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9974719869499754</v>
+        <v>0.9974594948123133</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>708</v>
@@ -1507,19 +1507,19 @@
         <v>756053</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>749885</v>
+        <v>749043</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>760000</v>
+        <v>760029</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9909825683346959</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9828969278552845</v>
+        <v>0.9817945851946878</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9961552412243917</v>
+        <v>0.996193662693982</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>3235</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8784</v>
+        <v>9649</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01521498704173963</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004757728443355388</v>
+        <v>0.004784820600270598</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04131144626892688</v>
+        <v>0.04538067121309634</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1632,19 +1632,19 @@
         <v>3923</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9054</v>
+        <v>8932</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01786533775930213</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004479222488083544</v>
+        <v>0.004500872985619834</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04123279517419978</v>
+        <v>0.04067658834306655</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1653,19 +1653,19 @@
         <v>7158</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2996</v>
+        <v>2981</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13572</v>
+        <v>14904</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01656154185992283</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006932918267076755</v>
+        <v>0.006896027751391492</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03140036376278839</v>
+        <v>0.03448310747482794</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>209383</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>203834</v>
+        <v>202969</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>211606</v>
+        <v>211601</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9847850129582604</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9586885537310731</v>
+        <v>0.9546193287869036</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9952422715566447</v>
+        <v>0.9952151793997295</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>208</v>
@@ -1703,19 +1703,19 @@
         <v>215668</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>210537</v>
+        <v>210659</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>218607</v>
+        <v>218603</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9821346622406979</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9587672048257989</v>
+        <v>0.9593234116569335</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9955207775119165</v>
+        <v>0.9954991270143801</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>401</v>
@@ -1724,19 +1724,19 @@
         <v>425051</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>418637</v>
+        <v>417305</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>429213</v>
+        <v>429228</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9834384581400771</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9685996362372115</v>
+        <v>0.9655168925251717</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9930670817329232</v>
+        <v>0.9931039722486086</v>
       </c>
     </row>
     <row r="18">
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4816</v>
+        <v>6001</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003499648030520905</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01757703716794301</v>
+        <v>0.02190474706834175</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6590</v>
+        <v>7568</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007754564537591819</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02369544475583027</v>
+        <v>0.02721334645170253</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1870,19 +1870,19 @@
         <v>3115</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8520</v>
+        <v>9189</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.005642962683649497</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001736421364931407</v>
+        <v>0.001726692070245889</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01543188333368628</v>
+        <v>0.01664408452993988</v>
       </c>
     </row>
     <row r="20">
@@ -1899,7 +1899,7 @@
         <v>273022</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>269165</v>
+        <v>267980</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>273981</v>
@@ -1908,7 +1908,7 @@
         <v>0.9965003519694791</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9824229628320569</v>
+        <v>0.978095252931661</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1920,7 +1920,7 @@
         <v>275939</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>271506</v>
+        <v>270528</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>278096</v>
@@ -1929,7 +1929,7 @@
         <v>0.9922454354624082</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9763045552441698</v>
+        <v>0.9727866535482975</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1941,19 +1941,19 @@
         <v>548962</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>543557</v>
+        <v>542888</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>551118</v>
+        <v>551124</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9943570373163505</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9845681166663138</v>
+        <v>0.9833559154700589</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9982635786350685</v>
+        <v>0.9982733079297541</v>
       </c>
     </row>
     <row r="21">
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5973</v>
+        <v>5748</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.002832919596865013</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.009011718467066715</v>
+        <v>0.008671962972615436</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2066,19 +2066,19 @@
         <v>4233</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10493</v>
+        <v>10541</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006100660524134925</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001522293233679495</v>
+        <v>0.001519126624201178</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01512344409866435</v>
+        <v>0.01519239874569457</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -2087,19 +2087,19 @@
         <v>6111</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2848</v>
+        <v>2133</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12470</v>
+        <v>12322</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.004504203107588812</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002099007360804281</v>
+        <v>0.001571985162977205</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009191956367264975</v>
+        <v>0.009082675013056783</v>
       </c>
     </row>
     <row r="23">
@@ -2116,7 +2116,7 @@
         <v>660910</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>656815</v>
+        <v>657040</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>662788</v>
@@ -2125,7 +2125,7 @@
         <v>0.997167080403135</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9909882815329313</v>
+        <v>0.9913280370273846</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2137,19 +2137,19 @@
         <v>689620</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>683360</v>
+        <v>683312</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>692797</v>
+        <v>692799</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9938993394758651</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9848765559013356</v>
+        <v>0.9848076012543054</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9984777067663205</v>
+        <v>0.9984808733757988</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1248</v>
@@ -2158,19 +2158,19 @@
         <v>1350530</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1344171</v>
+        <v>1344319</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1353793</v>
+        <v>1354508</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9954957968924112</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9908080436327349</v>
+        <v>0.9909173249869433</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9979009926391956</v>
+        <v>0.9984280148370228</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>6417</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2146</v>
+        <v>2260</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12935</v>
+        <v>14820</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.008236366862467752</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002754819149873601</v>
+        <v>0.002901244932351216</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01660201487775136</v>
+        <v>0.01902166503030282</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2283,19 +2283,19 @@
         <v>3321</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8661</v>
+        <v>8885</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.004037687296647937</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001283020378316181</v>
+        <v>0.00128633113998739</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01052904198486332</v>
+        <v>0.01080114056395496</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -2304,19 +2304,19 @@
         <v>9738</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4400</v>
+        <v>4617</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17464</v>
+        <v>18133</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.006080038087315818</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002747026121045897</v>
+        <v>0.002882466441227544</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01090355280746047</v>
+        <v>0.0113211837430072</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>772681</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>766163</v>
+        <v>764278</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>776952</v>
+        <v>776838</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9917636331375322</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9833979851222486</v>
+        <v>0.9809783349696973</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9972451808501264</v>
+        <v>0.9970987550676489</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>753</v>
@@ -2354,19 +2354,19 @@
         <v>819257</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>813917</v>
+        <v>813693</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>821523</v>
+        <v>821520</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9959623127033521</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9894709580151367</v>
+        <v>0.989198859436045</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9987169796216838</v>
+        <v>0.9987136688600126</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1464</v>
@@ -2375,19 +2375,19 @@
         <v>1591938</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1584212</v>
+        <v>1583543</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1597276</v>
+        <v>1597059</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9939199619126842</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9890964471925394</v>
+        <v>0.9886788162569928</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9972529738789542</v>
+        <v>0.9971175335587725</v>
       </c>
     </row>
     <row r="27">
@@ -2479,19 +2479,19 @@
         <v>33622</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22793</v>
+        <v>22002</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>48432</v>
+        <v>48575</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009811579185572702</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006651291581707361</v>
+        <v>0.00642069125283814</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01413342825751105</v>
+        <v>0.01417503574214527</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>24</v>
@@ -2500,19 +2500,19 @@
         <v>25379</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>15794</v>
+        <v>16944</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>36909</v>
+        <v>38077</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.00713873698309214</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004442681543968316</v>
+        <v>0.004766138290239293</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01038196422814025</v>
+        <v>0.01071049260914045</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>54</v>
@@ -2521,19 +2521,19 @@
         <v>59001</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>43361</v>
+        <v>45530</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>77487</v>
+        <v>78127</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.008450596066418143</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006210465108597622</v>
+        <v>0.006521217255817376</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0110983116935818</v>
+        <v>0.01118995083157292</v>
       </c>
     </row>
     <row r="29">
@@ -2550,19 +2550,19 @@
         <v>3393157</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3378347</v>
+        <v>3378204</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3403986</v>
+        <v>3404777</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9901884208144273</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9858665717424889</v>
+        <v>0.9858249642578553</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9933487084182927</v>
+        <v>0.9935793087471619</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3272</v>
@@ -2571,19 +2571,19 @@
         <v>3529719</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3518189</v>
+        <v>3517021</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3539304</v>
+        <v>3538154</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9928612630169079</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9896180357718597</v>
+        <v>0.9892895073908594</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9955573184560315</v>
+        <v>0.9952338617097607</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6451</v>
@@ -2592,19 +2592,19 @@
         <v>6922876</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6904390</v>
+        <v>6903750</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6938516</v>
+        <v>6936347</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9915494039335818</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9889016883064179</v>
+        <v>0.9888100491684271</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9937895348914021</v>
+        <v>0.9934787827441826</v>
       </c>
     </row>
     <row r="30">
@@ -2940,19 +2940,19 @@
         <v>2529</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6980</v>
+        <v>6691</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008608977999876434</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002669115228105052</v>
+        <v>0.002700582187672921</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02376239238540591</v>
+        <v>0.02277564397558994</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2974,19 +2974,19 @@
         <v>2529</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7863</v>
+        <v>6933</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004341868322143172</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001362923031130362</v>
+        <v>0.001358676615996223</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01350005011021222</v>
+        <v>0.01190229397157158</v>
       </c>
     </row>
     <row r="5">
@@ -3003,19 +3003,19 @@
         <v>291232</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>286781</v>
+        <v>287070</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>292977</v>
+        <v>292968</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9913910220001235</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9762376076145938</v>
+        <v>0.9772243560244103</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9973308847718949</v>
+        <v>0.9972994178123271</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>277</v>
@@ -3037,19 +3037,19 @@
         <v>579935</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>574601</v>
+        <v>575531</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>581670</v>
+        <v>581673</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9956581316778569</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9864999498897877</v>
+        <v>0.9880977060284283</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9986370769688697</v>
+        <v>0.9986413233840038</v>
       </c>
     </row>
     <row r="6">
@@ -3141,19 +3141,19 @@
         <v>6191</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2240</v>
+        <v>2637</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12664</v>
+        <v>13033</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0123182664728153</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004457439233305843</v>
+        <v>0.005246030713277674</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02519902350622144</v>
+        <v>0.02593254455725579</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -3175,19 +3175,19 @@
         <v>6191</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2198</v>
+        <v>2244</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12164</v>
+        <v>13307</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006035977887265333</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002142699107311153</v>
+        <v>0.0021875060252158</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0118592885474544</v>
+        <v>0.01297449238190266</v>
       </c>
     </row>
     <row r="8">
@@ -3204,19 +3204,19 @@
         <v>496384</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>489911</v>
+        <v>489542</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>500335</v>
+        <v>499938</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9876817335271847</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9748009764937783</v>
+        <v>0.9740674554427436</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9955425607666941</v>
+        <v>0.9947539692867223</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>484</v>
@@ -3238,19 +3238,19 @@
         <v>1019468</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1013495</v>
+        <v>1012352</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1023461</v>
+        <v>1023415</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9939640221127347</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9881407114525457</v>
+        <v>0.9870255076180975</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9978573008926889</v>
+        <v>0.9978124939747843</v>
       </c>
     </row>
     <row r="9">
@@ -3345,16 +3345,16 @@
         <v>774</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7152</v>
+        <v>7353</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00763875762395023</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002430134529983463</v>
+        <v>0.002429405452355717</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02244930719888069</v>
+        <v>0.02308193934609938</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5663</v>
+        <v>6006</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00296431090438728</v>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01683830948639857</v>
+        <v>0.01785938380550144</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -3384,19 +3384,19 @@
         <v>3430</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>877</v>
+        <v>999</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8717</v>
+        <v>8564</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005238206507087981</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001339160542207527</v>
+        <v>0.001525034525589141</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01331127911189509</v>
+        <v>0.01307664999606257</v>
       </c>
     </row>
     <row r="11">
@@ -3413,7 +3413,7 @@
         <v>316132</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>311413</v>
+        <v>311212</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>317791</v>
@@ -3422,10 +3422,10 @@
         <v>0.9923612423760497</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9775506928011195</v>
+        <v>0.9769180606539005</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9975698654700166</v>
+        <v>0.9975705945476443</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>331</v>
@@ -3434,7 +3434,7 @@
         <v>335312</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>330646</v>
+        <v>330303</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>336309</v>
@@ -3443,7 +3443,7 @@
         <v>0.9970356890956127</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9831616905136006</v>
+        <v>0.9821406161944986</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3455,19 +3455,19 @@
         <v>651444</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>646157</v>
+        <v>646310</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653997</v>
+        <v>653875</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.994761793492912</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9866887208881052</v>
+        <v>0.9869233500039373</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9986608394577925</v>
+        <v>0.9984749654744108</v>
       </c>
     </row>
     <row r="12">
@@ -3559,19 +3559,19 @@
         <v>2889</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9014</v>
+        <v>7766</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007809820298489524</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002405738913841851</v>
+        <v>0.002395273629900901</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02436380744077366</v>
+        <v>0.02099084962345664</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -3580,19 +3580,19 @@
         <v>5368</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15048</v>
+        <v>14376</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01386141747883714</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003114390501626348</v>
+        <v>0.003105571345088401</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03885486240140187</v>
+        <v>0.0371191351563912</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -3601,19 +3601,19 @@
         <v>8258</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3325</v>
+        <v>4021</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17319</v>
+        <v>17715</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.010904821954401</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004391498197663288</v>
+        <v>0.005309851341421673</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02287073778808343</v>
+        <v>0.02339382984385993</v>
       </c>
     </row>
     <row r="14">
@@ -3630,19 +3630,19 @@
         <v>367075</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>360950</v>
+        <v>362198</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369074</v>
+        <v>369078</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9921901797015105</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9756361925592254</v>
+        <v>0.9790091503765438</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9975942610861581</v>
+        <v>0.997604726370099</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>354</v>
@@ -3651,19 +3651,19 @@
         <v>381915</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>372235</v>
+        <v>372907</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>386077</v>
+        <v>386080</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9861385825211628</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9611451375985968</v>
+        <v>0.9628808648436089</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9968856094983736</v>
+        <v>0.9968944286549116</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>705</v>
@@ -3672,19 +3672,19 @@
         <v>748989</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>739928</v>
+        <v>739532</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>753922</v>
+        <v>753226</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.989095178045599</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9771292622119168</v>
+        <v>0.9766061701561409</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9956085018023371</v>
+        <v>0.9946901486585783</v>
       </c>
     </row>
     <row r="15">
@@ -3779,16 +3779,16 @@
         <v>945</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9070</v>
+        <v>9461</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01766461473724026</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004472955823678198</v>
+        <v>0.004475362422396659</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04294248993387078</v>
+        <v>0.04479036406582391</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -3797,19 +3797,19 @@
         <v>4640</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1186</v>
+        <v>1197</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10465</v>
+        <v>11490</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02122774563350403</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005424053031717041</v>
+        <v>0.005474938580308686</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04787508109977864</v>
+        <v>0.05256640911958461</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -3818,19 +3818,19 @@
         <v>8371</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3953</v>
+        <v>3710</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15510</v>
+        <v>15968</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01947671245616796</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009197940056523916</v>
+        <v>0.008631173567764494</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03608685310448254</v>
+        <v>0.03715110685992559</v>
       </c>
     </row>
     <row r="17">
@@ -3847,7 +3847,7 @@
         <v>207490</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>202151</v>
+        <v>201760</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>210276</v>
@@ -3856,10 +3856,10 @@
         <v>0.9823353852627598</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9570575100661292</v>
+        <v>0.9552096359341761</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9955270441763218</v>
+        <v>0.9955246375776033</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>219</v>
@@ -3868,19 +3868,19 @@
         <v>213947</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>208122</v>
+        <v>207097</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217401</v>
+        <v>217390</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.978772254366496</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9521249189002214</v>
+        <v>0.9474335908804153</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.994575946968283</v>
+        <v>0.9945250614196913</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>427</v>
@@ -3889,19 +3889,19 @@
         <v>421437</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>414298</v>
+        <v>413840</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>425855</v>
+        <v>426098</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.980523287543832</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9639131468955175</v>
+        <v>0.9628488931400753</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9908020599434761</v>
+        <v>0.9913688264322358</v>
       </c>
     </row>
     <row r="18">
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5029</v>
+        <v>5722</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003603532832324165</v>
@@ -4005,7 +4005,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01911122662901716</v>
+        <v>0.02174470001392027</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4782</v>
+        <v>4802</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001768193166404544</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.00891750438025188</v>
+        <v>0.008955804692083571</v>
       </c>
     </row>
     <row r="20">
@@ -4056,7 +4056,7 @@
         <v>262175</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>258094</v>
+        <v>257401</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>263123</v>
@@ -4065,7 +4065,7 @@
         <v>0.9963964671676758</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9808887733709842</v>
+        <v>0.9782552999860797</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>535290</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>531456</v>
+        <v>531436</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>536238</v>
@@ -4099,7 +4099,7 @@
         <v>0.9982318068335955</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9910824956197481</v>
+        <v>0.9910441953079164</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10346</v>
+        <v>9992</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004335027571969447</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01575791311893263</v>
+        <v>0.01521849501781419</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -4215,19 +4215,19 @@
         <v>4773</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11432</v>
+        <v>11056</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006904251195209269</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001830424583004388</v>
+        <v>0.001835685375426398</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01653660653936461</v>
+        <v>0.01599336447280935</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -4236,19 +4236,19 @@
         <v>7619</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2654</v>
+        <v>3480</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14628</v>
+        <v>19374</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00565274560024799</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001969402407194033</v>
+        <v>0.002582235144358529</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01085296874527138</v>
+        <v>0.01437426586674175</v>
       </c>
     </row>
     <row r="23">
@@ -4265,7 +4265,7 @@
         <v>653712</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>646212</v>
+        <v>646566</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>656558</v>
@@ -4274,7 +4274,7 @@
         <v>0.9956649724280305</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9842420868810666</v>
+        <v>0.9847815049821859</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -4286,19 +4286,19 @@
         <v>686521</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>679862</v>
+        <v>680238</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>690029</v>
+        <v>690025</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9930957488047907</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9834633934606357</v>
+        <v>0.9840066355271905</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9981695754169956</v>
+        <v>0.9981643146245736</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1220</v>
@@ -4307,19 +4307,19 @@
         <v>1340233</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1333224</v>
+        <v>1328478</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1345198</v>
+        <v>1344372</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.994347254399752</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9891470312547286</v>
+        <v>0.9856257341332582</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9980305975928059</v>
+        <v>0.9974177648556415</v>
       </c>
     </row>
     <row r="24">
@@ -4424,19 +4424,19 @@
         <v>5022</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13243</v>
+        <v>12468</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.006078196297923326</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001318127018548842</v>
+        <v>0.001319185320437235</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01602897544562179</v>
+        <v>0.01509141612108954</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4</v>
@@ -4445,19 +4445,19 @@
         <v>5022</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13116</v>
+        <v>12091</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003129213408181151</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0006775918897829883</v>
+        <v>0.0006755594306963617</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.00817296726923205</v>
+        <v>0.007534551354548237</v>
       </c>
     </row>
     <row r="26">
@@ -4487,19 +4487,19 @@
         <v>821145</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>812924</v>
+        <v>813699</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>825078</v>
+        <v>825077</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9939218037020767</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.983971024554378</v>
+        <v>0.9849085838789106</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9986818729814512</v>
+        <v>0.9986808146795627</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1501</v>
@@ -4508,19 +4508,19 @@
         <v>1599728</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1591634</v>
+        <v>1592659</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1603663</v>
+        <v>1603666</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9968707865918188</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9918270327307679</v>
+        <v>0.9924654486454516</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.999322408110217</v>
+        <v>0.9993244405693037</v>
       </c>
     </row>
     <row r="27">
@@ -4612,19 +4612,19 @@
         <v>21568</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13572</v>
+        <v>13651</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>31823</v>
+        <v>31822</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.006354128810399229</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.003998457391142097</v>
+        <v>0.004021652876140054</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.009375302270314204</v>
+        <v>0.009375123287530464</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>17</v>
@@ -4633,19 +4633,19 @@
         <v>20800</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>12264</v>
+        <v>11970</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>33268</v>
+        <v>32621</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.005868119955260486</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.003459998997012412</v>
+        <v>0.003376992085204773</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.009385772421166947</v>
+        <v>0.00920330434604541</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>39</v>
@@ -4654,19 +4654,19 @@
         <v>42368</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>30531</v>
+        <v>30274</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>59285</v>
+        <v>57613</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.006105864575420084</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.004399922747766326</v>
+        <v>0.004363014154180438</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.008543812726676642</v>
+        <v>0.008302921142464332</v>
       </c>
     </row>
     <row r="29">
@@ -4683,19 +4683,19 @@
         <v>3372782</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3362527</v>
+        <v>3362528</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3380778</v>
+        <v>3380699</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9936458711896008</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.990624697729686</v>
+        <v>0.9906248767124696</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.996001542608858</v>
+        <v>0.99597834712386</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3321</v>
@@ -4704,19 +4704,19 @@
         <v>3523742</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3511274</v>
+        <v>3511921</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3532278</v>
+        <v>3532572</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9941318800447395</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9906142275788331</v>
+        <v>0.9907966956539552</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9965400010029876</v>
+        <v>0.9966230079147952</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6530</v>
@@ -4725,19 +4725,19 @@
         <v>6896524</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6879607</v>
+        <v>6881279</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6908361</v>
+        <v>6908618</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9938941354245799</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9914561872733237</v>
+        <v>0.9916970788575354</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9956000772522341</v>
+        <v>0.9956369858458195</v>
       </c>
     </row>
     <row r="30">
@@ -5076,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3527</v>
+        <v>3360</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002158529762919305</v>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01106098324268203</v>
+        <v>0.01053707544083176</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -5097,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3478</v>
+        <v>3256</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003088854520611718</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01100550112698886</v>
+        <v>0.01030284499413077</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -5115,19 +5115,19 @@
         <v>1665</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4455</v>
+        <v>5122</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002621651982991322</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0</v>
+        <v>0.0006742930357054021</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007017329716568176</v>
+        <v>0.008066726215387411</v>
       </c>
     </row>
     <row r="5">
@@ -5144,7 +5144,7 @@
         <v>318157</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>315318</v>
+        <v>315485</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>318845</v>
@@ -5153,7 +5153,7 @@
         <v>0.9978414702370807</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.988939016757318</v>
+        <v>0.9894629245591684</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -5165,7 +5165,7 @@
         <v>315085</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>312583</v>
+        <v>312805</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>316061</v>
@@ -5174,7 +5174,7 @@
         <v>0.9969111454793883</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9889944988730114</v>
+        <v>0.9896971550058692</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -5186,19 +5186,19 @@
         <v>633241</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>630451</v>
+        <v>629784</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>634906</v>
+        <v>634478</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9973783480170088</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9929826702834318</v>
+        <v>0.991933273784613</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>1</v>
+        <v>0.9993257069642946</v>
       </c>
     </row>
     <row r="6">
@@ -5290,19 +5290,19 @@
         <v>4192</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>978</v>
+        <v>1002</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9805</v>
+        <v>10654</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.007942571668291997</v>
+        <v>0.007942571668291995</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001852550336140485</v>
+        <v>0.001897625815593646</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01857657776129357</v>
+        <v>0.02018579344159278</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -5311,19 +5311,19 @@
         <v>3794</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1279</v>
+        <v>1307</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8545</v>
+        <v>9591</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006950665053546586</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002342556232823546</v>
+        <v>0.002394520204972132</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01565614127618594</v>
+        <v>0.01757286702041908</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -5332,19 +5332,19 @@
         <v>7986</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3862</v>
+        <v>3969</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14127</v>
+        <v>15275</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007438304047297561</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003597010928888558</v>
+        <v>0.003696768942845114</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01315809122194985</v>
+        <v>0.01422778941578643</v>
       </c>
     </row>
     <row r="8">
@@ -5361,19 +5361,19 @@
         <v>523619</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>518006</v>
+        <v>517157</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>526833</v>
+        <v>526809</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.992057428331708</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9814234222387066</v>
+        <v>0.9798142065584076</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9981474496638595</v>
+        <v>0.9981023741844063</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>711</v>
@@ -5382,19 +5382,19 @@
         <v>542015</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>537264</v>
+        <v>536218</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>544530</v>
+        <v>544502</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9930493349464535</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9843438587238138</v>
+        <v>0.982427132979581</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9976574437671766</v>
+        <v>0.9976054797950279</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1086</v>
@@ -5403,19 +5403,19 @@
         <v>1065634</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1059493</v>
+        <v>1058345</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1069758</v>
+        <v>1069651</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9925616959527025</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9868419087780503</v>
+        <v>0.9857722105842135</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9964029890711117</v>
+        <v>0.9963032310571548</v>
       </c>
     </row>
     <row r="9">
@@ -5507,19 +5507,19 @@
         <v>9052</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5179</v>
+        <v>5281</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14730</v>
+        <v>14432</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02864468102247724</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01638820203697616</v>
+        <v>0.01671208754983006</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04661360293136795</v>
+        <v>0.04567049099914249</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -5528,19 +5528,19 @@
         <v>4228</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1851</v>
+        <v>1688</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7927</v>
+        <v>7992</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01186333716579828</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005194410920264632</v>
+        <v>0.004735694888589002</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02224330210842471</v>
+        <v>0.02242583587539502</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>22</v>
@@ -5549,19 +5549,19 @@
         <v>13279</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8526</v>
+        <v>8605</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20329</v>
+        <v>20660</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01975000190263685</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01267990676840275</v>
+        <v>0.01279843702305247</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03023389227382945</v>
+        <v>0.03072733428883563</v>
       </c>
     </row>
     <row r="11">
@@ -5578,19 +5578,19 @@
         <v>306941</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>301263</v>
+        <v>301561</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310814</v>
+        <v>310712</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9713553189775226</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9533863970686317</v>
+        <v>0.9543295090008577</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.983611797963024</v>
+        <v>0.98328791245017</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>528</v>
@@ -5599,19 +5599,19 @@
         <v>352153</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>348454</v>
+        <v>348389</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>354530</v>
+        <v>354693</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9881366628342019</v>
+        <v>0.9881366628342018</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9777566978915756</v>
+        <v>0.9775741641246052</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9948055890797354</v>
+        <v>0.995264305111411</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>874</v>
@@ -5620,19 +5620,19 @@
         <v>659096</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>652046</v>
+        <v>651715</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>663849</v>
+        <v>663770</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9802499980973634</v>
+        <v>0.9802499980973631</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9697661077261707</v>
+        <v>0.9692726657111649</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9873200932315973</v>
+        <v>0.9872015629769476</v>
       </c>
     </row>
     <row r="12">
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10680</v>
+        <v>10113</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007706422767443145</v>
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02862032012607018</v>
+        <v>0.02710241304499971</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -5745,19 +5745,19 @@
         <v>4517</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2008</v>
+        <v>2020</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8108</v>
+        <v>8149</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0107047013521074</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004758482142574076</v>
+        <v>0.004786780085468193</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01921396704606285</v>
+        <v>0.01931337364128156</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -5766,19 +5766,19 @@
         <v>7393</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3542</v>
+        <v>3647</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14494</v>
+        <v>13998</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.009297602865685789</v>
+        <v>0.009297602865685786</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004454954752843368</v>
+        <v>0.004586862276592444</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01822885610183215</v>
+        <v>0.01760474096990649</v>
       </c>
     </row>
     <row r="14">
@@ -5795,7 +5795,7 @@
         <v>370269</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>362465</v>
+        <v>363032</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>373145</v>
@@ -5804,7 +5804,7 @@
         <v>0.992293577232557</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9713796798739304</v>
+        <v>0.9728975869550003</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -5816,19 +5816,19 @@
         <v>417444</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>413853</v>
+        <v>413812</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>419953</v>
+        <v>419941</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9892952986478926</v>
+        <v>0.9892952986478928</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9807860329539371</v>
+        <v>0.9806866263587191</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.995241517857426</v>
+        <v>0.9952132199145318</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>880</v>
@@ -5837,19 +5837,19 @@
         <v>787714</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>780613</v>
+        <v>781109</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>791565</v>
+        <v>791460</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9907023971343142</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.981771143898168</v>
+        <v>0.9823952590300934</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9955450452471566</v>
+        <v>0.9954131377234074</v>
       </c>
     </row>
     <row r="15">
@@ -5941,19 +5941,19 @@
         <v>3651</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1562</v>
+        <v>1437</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7724</v>
+        <v>8084</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01775392971725485</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007595824910147517</v>
+        <v>0.006985595365610189</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03755406052597363</v>
+        <v>0.03930659147042125</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -5962,19 +5962,19 @@
         <v>3105</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1479</v>
+        <v>1472</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5866</v>
+        <v>5969</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01368928082834133</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006519447311582033</v>
+        <v>0.006488538369954592</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02586027875109101</v>
+        <v>0.02631413900438903</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -5983,19 +5983,19 @@
         <v>6756</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3901</v>
+        <v>3484</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10956</v>
+        <v>11057</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.01562217790713167</v>
+        <v>0.01562217790713168</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009020045970698373</v>
+        <v>0.008054711375126289</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02533237840800933</v>
+        <v>0.02556572353203185</v>
       </c>
     </row>
     <row r="17">
@@ -6012,19 +6012,19 @@
         <v>202014</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>197941</v>
+        <v>197581</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204103</v>
+        <v>204228</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9822460702827451</v>
+        <v>0.9822460702827452</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9624459394740263</v>
+        <v>0.9606934085295787</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9924041750898518</v>
+        <v>0.9930144046343899</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>483</v>
@@ -6033,19 +6033,19 @@
         <v>223718</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>220957</v>
+        <v>220854</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>225344</v>
+        <v>225351</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9863107191716586</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.974139721248909</v>
+        <v>0.9736858609956118</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.993480552688418</v>
+        <v>0.9935114616300454</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>756</v>
@@ -6054,19 +6054,19 @@
         <v>425732</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>421532</v>
+        <v>421431</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>428587</v>
+        <v>429004</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9843778220928684</v>
+        <v>0.9843778220928682</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9746676215919909</v>
+        <v>0.9744342764679689</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9909799540293017</v>
+        <v>0.9919452886248737</v>
       </c>
     </row>
     <row r="18">
@@ -6158,19 +6158,19 @@
         <v>5934</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3126</v>
+        <v>3176</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10317</v>
+        <v>10186</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02192197920661926</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01154847993818473</v>
+        <v>0.01173370018987232</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03811084149632653</v>
+        <v>0.03762698434082549</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -6179,19 +6179,19 @@
         <v>4562</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2299</v>
+        <v>2426</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8245</v>
+        <v>9177</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01734009631935228</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008739662174654047</v>
+        <v>0.009221142494129021</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03133948593424</v>
+        <v>0.03488199406123364</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -6200,19 +6200,19 @@
         <v>10497</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6483</v>
+        <v>6452</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15945</v>
+        <v>16005</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01966368810897403</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01214560835659139</v>
+        <v>0.01208718967725846</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0298711745745203</v>
+        <v>0.02998218774157092</v>
       </c>
     </row>
     <row r="20">
@@ -6229,19 +6229,19 @@
         <v>264773</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260390</v>
+        <v>260521</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267581</v>
+        <v>267531</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9780780207933809</v>
+        <v>0.9780780207933807</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9618891585036727</v>
+        <v>0.9623730156591747</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9884515200618154</v>
+        <v>0.9882662998101277</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>449</v>
@@ -6250,19 +6250,19 @@
         <v>258537</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>254854</v>
+        <v>253922</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>260800</v>
+        <v>260673</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9826599036806478</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9686605140657614</v>
+        <v>0.9651180059387664</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9912603378253461</v>
+        <v>0.9907788575058709</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>808</v>
@@ -6271,19 +6271,19 @@
         <v>523309</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>517861</v>
+        <v>517801</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>527323</v>
+        <v>527354</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9803363118910261</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9701288254254793</v>
+        <v>0.9700178122584291</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9878543916434084</v>
+        <v>0.9879128103227415</v>
       </c>
     </row>
     <row r="21">
@@ -6375,19 +6375,19 @@
         <v>7723</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3819</v>
+        <v>2958</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15367</v>
+        <v>14468</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01074385575414905</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005312289443205166</v>
+        <v>0.004114697250146637</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02137867916860784</v>
+        <v>0.02012756105038881</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -6396,19 +6396,19 @@
         <v>10269</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6047</v>
+        <v>5678</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17115</v>
+        <v>16451</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01333670793861177</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007853180858466967</v>
+        <v>0.007373484570134302</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02222702669943672</v>
+        <v>0.02136444806377433</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>23</v>
@@ -6417,19 +6417,19 @@
         <v>17992</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11312</v>
+        <v>11192</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26529</v>
+        <v>26168</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.01208484604639107</v>
+        <v>0.01208484604639108</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.007598206131157375</v>
+        <v>0.007517459317106211</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01781889346983302</v>
+        <v>0.01757616215381277</v>
       </c>
     </row>
     <row r="23">
@@ -6446,19 +6446,19 @@
         <v>711096</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>703452</v>
+        <v>704351</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>715000</v>
+        <v>715861</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.989256144245851</v>
+        <v>0.9892561442458508</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.978621320831392</v>
+        <v>0.9798724389496112</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9946877105567948</v>
+        <v>0.9958853027498534</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>942</v>
@@ -6467,19 +6467,19 @@
         <v>759727</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>752881</v>
+        <v>753545</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>763949</v>
+        <v>764318</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9866632920613884</v>
+        <v>0.9866632920613881</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9777729733005629</v>
+        <v>0.9786355519362258</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.992146819141533</v>
+        <v>0.9926265154298666</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1532</v>
@@ -6488,19 +6488,19 @@
         <v>1470823</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1462286</v>
+        <v>1462647</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1477503</v>
+        <v>1477623</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9879151539536088</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.982181106530167</v>
+        <v>0.9824238378461868</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9924017938688428</v>
+        <v>0.9924825406828931</v>
       </c>
     </row>
     <row r="24">
@@ -6592,19 +6592,19 @@
         <v>10722</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5256</v>
+        <v>5629</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>17894</v>
+        <v>19622</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.01343473454615542</v>
+        <v>0.01343473454615541</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006585252029991252</v>
+        <v>0.007052675243643883</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02242092037771243</v>
+        <v>0.0245863151966993</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -6613,19 +6613,19 @@
         <v>7209</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3773</v>
+        <v>3760</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13122</v>
+        <v>13296</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.008679705688377767</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0045429425907278</v>
+        <v>0.004526456769504743</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01579828911423464</v>
+        <v>0.01600774160674309</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -6634,19 +6634,19 @@
         <v>17931</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>11615</v>
+        <v>11491</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27181</v>
+        <v>27335</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01100972352776767</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00713158198667851</v>
+        <v>0.007055482759034907</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01668894036920709</v>
+        <v>0.01678344028557361</v>
       </c>
     </row>
     <row r="26">
@@ -6663,19 +6663,19 @@
         <v>787350</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>780178</v>
+        <v>778450</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>792816</v>
+        <v>792443</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9865652654538445</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9775790796222862</v>
+        <v>0.975413684803301</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9934147479700084</v>
+        <v>0.9929473247563562</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1051</v>
@@ -6684,19 +6684,19 @@
         <v>823400</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>817487</v>
+        <v>817313</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>826836</v>
+        <v>826849</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9913202943116221</v>
+        <v>0.9913202943116223</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9842017108857654</v>
+        <v>0.9839922583932569</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9954570574092722</v>
+        <v>0.9954735432304952</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1801</v>
@@ -6705,19 +6705,19 @@
         <v>1610750</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1601500</v>
+        <v>1601346</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1617066</v>
+        <v>1617190</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9889902764722323</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9833110596307928</v>
+        <v>0.9832165597144265</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9928684180133215</v>
+        <v>0.9929445172409653</v>
       </c>
     </row>
     <row r="27">
@@ -6809,19 +6809,19 @@
         <v>44838</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>34224</v>
+        <v>33335</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>59425</v>
+        <v>59436</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01270540944365827</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009697682073014939</v>
+        <v>0.009445945279275846</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01683890325641329</v>
+        <v>0.01684194234977896</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>67</v>
@@ -6830,19 +6830,19 @@
         <v>38661</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>29827</v>
+        <v>30199</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>49855</v>
+        <v>50055</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01036274605342874</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007994894999724122</v>
+        <v>0.008094529620521167</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01336317397680795</v>
+        <v>0.0134168526528634</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>126</v>
@@ -6851,19 +6851,19 @@
         <v>83499</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>69164</v>
+        <v>69377</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>99943</v>
+        <v>99287</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01150153719810661</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009526988193856027</v>
+        <v>0.009556331511637747</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01376669724732113</v>
+        <v>0.01367628259453038</v>
       </c>
     </row>
     <row r="29">
@@ -6880,19 +6880,19 @@
         <v>3484220</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3469633</v>
+        <v>3469622</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3494834</v>
+        <v>3495723</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9872945905563418</v>
+        <v>0.9872945905563417</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9831610967435865</v>
+        <v>0.9831580576502214</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9903023179269851</v>
+        <v>0.9905540547207241</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5290</v>
@@ -6901,19 +6901,19 @@
         <v>3692080</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3680886</v>
+        <v>3680686</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3700914</v>
+        <v>3700542</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9896372539465712</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9866368260231917</v>
+        <v>0.9865831473471357</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9920051050002757</v>
+        <v>0.9919054703794786</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8603</v>
@@ -6922,19 +6922,19 @@
         <v>7176300</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7159856</v>
+        <v>7160512</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7190635</v>
+        <v>7190422</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9884984628018934</v>
+        <v>0.9884984628018932</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9862333027526781</v>
+        <v>0.9863237174054698</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.990473011806144</v>
+        <v>0.9904436684883617</v>
       </c>
     </row>
     <row r="30">
